--- a/Top_100_IMDB_Movies.xlsx
+++ b/Top_100_IMDB_Movies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,54 +434,54 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name of movie</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Name of movie</t>
+          <t>Year of release</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Year of relase</t>
+          <t>Watchtime</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Watchtime</t>
+          <t>Movie Rating</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Movie Rating</t>
+          <t>Metascore</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Metascore</t>
+          <t>Votes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Votes</t>
+          <t>Gross collection</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Gross collection</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Star</t>
+          <t>Stars</t>
         </is>
       </c>
     </row>
